--- a/data/archives/1.xlsx
+++ b/data/archives/1.xlsx
@@ -10,6 +10,8 @@
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Chromosome 1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Chromosome 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Chromosome 3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Chromosome 4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -347,7 +349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -375,10 +377,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C2" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -389,10 +391,38 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C3" t="n">
-        <v>47</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>55</v>
+      </c>
+      <c r="C4" t="n">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 4</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>58</v>
+      </c>
+      <c r="C5" t="n">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -465,16 +495,40 @@
 PERIOD 1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-MATH 154: OLD; ECON 360: OLD; </t>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 470: OLD; GEOG 352: OLD; </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; HIST 256: OLD; </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LAW 258: OLD; ENGL 458: OLD, NB_T3, NB_T4, EHC_101; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: OLD; GEOG 360: OLD; SOC 458: NB_T3; </t>
+FREN 262: OLD; </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+POL 254: OLD; ECON 254: OLD, EHC_102, NB_T3; </t>
         </is>
       </c>
     </row>
@@ -488,43 +542,37 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: OLD, NB_T2, EHC_101, NB_T1; GEOG 352: NB_T4; SOC 452: EHC_102; </t>
+CSM 184: OLD, EHC_201; ECON 360: NB_T2; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, NB_T2, EHC_101, EHC_102; ECON 364: EHC_101, NB_T3; </t>
+GEOG 152: OLD; ECON 366: OLD; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 152: OLD; ENGL 470: OLD; ECON 354: OLD; </t>
+ENGL 456: OLD; COMS 152: NB_T5, EHC_201; SOC 152: OLD; GEOG 360: OLD; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, NB_T3, NB_T5; ECON 356: EHC_101; </t>
+GEOG 354: NB_T5; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 254: OLD, NB_T4, NB_T5; GEOG 358: NB_T2; SOC 456: NB_T1; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GLAK 262: OLD; COMS 152: OLD, NB_T5; ENGL 456: NB_T3; </t>
+RS 154: OLD, EHC_102, NB_T3, NB_T4; GEOG 358: NB_T1; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; ECON 366: OLD; </t>
+GEOG 256: OLD; ENGL 152: OLD; ECON 364: NB_T5, EHC_102; </t>
         </is>
       </c>
     </row>
@@ -538,31 +586,37 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-POL 254: OLD; GEOG 354: OLD; SOC 454: OLD; </t>
+SOC 452: OLD; CAT 256: OLD, NB_T3, NB_T2, EHC_201; ENGL 454: EHC_102; </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; ENGL 152: OLD; ENGL 468: NB_T4; </t>
+MATH 154: OLD; GEOG 356: OLD; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; CSM 184: OLD, NB_T5; ENGL 458: EHC_102, NB_T2, EHC_201, NB_T4, NB_T3; </t>
+SOC 454: OLD; ECON 356: OLD; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: OLD; GEOG 356: OLD; SOC 456: OLD; </t>
+SOWK 260: OLD; CHIN 102: OLD; ECON 354: NB_T1; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: NB_T5; CHIN 102: OLD; ENGL 454: EHC_102; </t>
+SOC 456: OLD; ENGL 468: NB_T1; HIST 152: OLD, NB_T5, NB_T4; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; </t>
         </is>
       </c>
     </row>
@@ -639,31 +693,43 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; GEOG 256: OLD; ENGL 468: OLD; </t>
+GEOG 152: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 152: OLD; ECON 366: OLD; FREN 262: OLD; </t>
+MATH 154: OLD; SOC 152: OLD; GEOG 356: OLD; GEOG 360: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: OLD, NB_T1; ECON 360: EHC_102; HIST 256: NB_T4; </t>
+ECON 356: EHC_201; COMS 152: OLD, EHC_101; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 458: OLD, EHC_201, NB_T3, NB_T4; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 356: OLD; SOC 456: OLD; </t>
+CSM 184: EHC_102, NB_T1, NB_T5; </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; ENGL 470: NB_T3; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, EHC_101, EHC_201; SOWK 260: OLD; ENGL 454: EHC_102; </t>
+SOC 454: OLD; SOC 456: NB_T4; ECON 364: NB_T2, EHC_101; ENGL 456: OLD; </t>
         </is>
       </c>
     </row>
@@ -674,22 +740,34 @@
 PERIOD 2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LAW 258: OLD; </t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 354: OLD; SOC 454: OLD; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-RS 154: OLD, NB_T1, NB_T5, EHC_201; LAW 258: EHC_201; ENGL 458: NB_T1, NB_T3, NB_T4, NB_T5, EHC_EXT_A; </t>
+HIST 256: OLD; SOC 456: OLD; ECON 360: OLD; GEOG 352: OLD; </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, NB_T3, NB_T1; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 152: OLD; ECON 364: NB_T4, NB_T5; ECON 254: EHC_201, EHC_101, NB_T2, NB_T3; </t>
+CAT 256: OLD, NB_T5, NB_T1, EHC_102; SOC 452: NB_T2; ECON 354: EHC_201; </t>
         </is>
       </c>
     </row>
@@ -700,40 +778,418 @@
 PERIOD 3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 360: OLD; SOC 458: OLD; </t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: OLD; GEOG 352: OLD; SOC 452: EHC_201; </t>
+GEOG 256: OLD; ENGL 468: OLD; ENGL 152: OLD; </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+POL 254: OLD; RS 154: OLD, NB_T5, NB_T1, EHC_201; GEOG 358: NB_T2; </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; ENGL 454: OLD; CHIN 102: EHC_102, EHC_101; </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 254: OLD, EHC_201, EHC_101, NB_T2; GEOG 354: NB_T3; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+FREN 262: OLD; ECON 366: EHC_101; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 152: OLD; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; SOC 152: OLD; GEOG 356: OLD; GEOG 360: OLD; </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 356: EHC_201; COMS 152: OLD, EHC_101; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 458: OLD, EHC_201, NB_T3, NB_T4; </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 184: EHC_102, NB_T1, NB_T5; </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; ENGL 470: NB_T3; </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; SOC 456: NB_T4; ECON 364: NB_T2, EHC_101; ENGL 456: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LAW 258: OLD; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 256: OLD; SOC 456: OLD; ECON 360: OLD; GEOG 352: OLD; </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, NB_T3, NB_T1; </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 256: OLD, NB_T5, NB_T1, EHC_102; SOC 452: NB_T2; ECON 354: EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 256: OLD; ENGL 468: OLD; ENGL 152: OLD; </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+POL 254: OLD; RS 154: OLD, NB_T5, NB_T1, EHC_201; GEOG 358: NB_T2; </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; ENGL 454: OLD; CHIN 102: EHC_102, EHC_101; </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 254: OLD, EHC_201, EHC_101, NB_T2; GEOG 354: NB_T3; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+FREN 262: OLD; ECON 366: EHC_101; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 470: OLD; GEOG 352: OLD; </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; HIST 256: OLD; </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LAW 258: OLD; ENGL 458: OLD, NB_T3, NB_T4, EHC_101; </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+FREN 262: OLD; </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+POL 254: OLD; ECON 254: OLD, EHC_102, NB_T3; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 184: OLD, EHC_201; ECON 360: NB_T2; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 152: OLD; ECON 366: OLD; </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 456: OLD; COMS 152: NB_T5, EHC_201; SOC 152: OLD; GEOG 360: OLD; </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 354: NB_T5; </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+RS 154: OLD, EHC_102, NB_T3, NB_T4; GEOG 358: NB_T1; </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 256: OLD; ENGL 152: OLD; ECON 364: NB_T5, EHC_102; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 452: OLD; CAT 256: OLD, NB_T3, NB_T2, EHC_201; ENGL 454: EHC_102; </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CHIN 102: OLD; ECON 354: EHC_102; CAT 256: NB_T3, NB_T5, NB_T2, EHC_201, NB_T1; </t>
+MATH 154: OLD; GEOG 356: OLD; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; GLAK 262: OLD; ENGL 456: NB_T5; </t>
+SOC 454: OLD; ECON 356: OLD; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 358: OLD; SOC 456: OLD; </t>
+SOWK 260: OLD; CHIN 102: OLD; ECON 354: NB_T1; </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; ENGL 468: NB_T1; HIST 152: OLD, NB_T5, NB_T4; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-COMS 152: OLD; ECON 356: NB_T5; POL 254: EHC_201; </t>
+SOC 458: OLD; </t>
         </is>
       </c>
     </row>

--- a/data/archives/1.xlsx
+++ b/data/archives/1.xlsx
@@ -12,6 +12,8 @@
     <sheet name="Chromosome 2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Chromosome 3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Chromosome 4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Chromosome 5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Chromosome 6" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,7 +351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,10 +379,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -391,10 +393,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +407,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
@@ -419,10 +421,38 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>57</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 5</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+Chromosome 6</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -495,40 +525,40 @@
 PERIOD 1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 470: OLD; GEOG 352: OLD; </t>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 358: OLD; SOC 454: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; </t>
+MATH 154: OLD; RS 154: OLD, NB_T3, NB_T2, NB_T4; CAT 256: OLD, NB_T5, EHC_201, EHC_102; </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; HIST 256: OLD; </t>
+SOC 458: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; ENGL 458: OLD, NB_T3, NB_T4, EHC_101; </t>
+GEOG 354: OLD; SOC 452: EHC_102; ENGL 456: OLD; ENGL 468: NB_T1; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: OLD; </t>
+GEOG 356: OLD; CSM 184: OLD, EHC_101; HIST 152: OLD, NB_T2, NB_T4; SOC 456: OLD; GLAK 262: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-POL 254: OLD; ECON 254: OLD, EHC_102, NB_T3; </t>
+GEOG 256: OLD; </t>
         </is>
       </c>
     </row>
@@ -542,37 +572,37 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: OLD, EHC_201; ECON 360: NB_T2; </t>
+GEOG 352: EHC_101; ECON 354: OLD; ECON 366: OLD; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 152: OLD; ECON 366: OLD; </t>
+ENGL 458: EHC_102, EHC_201, NB_T1, NB_T2, NB_T3; HIST 256: EHC_201; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 456: OLD; COMS 152: NB_T5, EHC_201; SOC 152: OLD; GEOG 360: OLD; </t>
+POL 254: OLD; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 354: NB_T5; </t>
+ECON 360: OLD; CHIN 102: OLD; SOC 152: OLD; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, EHC_102, NB_T3, NB_T4; GEOG 358: NB_T1; </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 256: OLD; ENGL 152: OLD; ECON 364: NB_T5, EHC_102; </t>
+GEOG 360: OLD; SOWK 260: OLD; </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 470: OLD; </t>
         </is>
       </c>
     </row>
@@ -583,40 +613,34 @@
 PERIOD 3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 454: EHC_101; LAW 258: OLD; </t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: OLD; CAT 256: OLD, NB_T3, NB_T2, EHC_201; ENGL 454: EHC_102; </t>
+ECON 364: OLD; </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; GEOG 356: OLD; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 454: OLD; ECON 356: OLD; </t>
+SOC 456: OLD; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; CHIN 102: OLD; ECON 354: NB_T1; </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; ENGL 468: NB_T1; HIST 152: OLD, NB_T5, NB_T4; </t>
+ECON 356: OLD; ENGL 152: EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 458: OLD; </t>
+COMS 152: OLD, EHC_101; GEOG 152: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; FREN 262: OLD; </t>
         </is>
       </c>
     </row>
@@ -693,43 +717,43 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 152: OLD; </t>
+GEOG 356: EHC_101; GLAK 262: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; SOC 152: OLD; GEOG 356: OLD; GEOG 360: OLD; </t>
+ECON 356: OLD; MATH 154: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 356: EHC_201; COMS 152: OLD, EHC_101; </t>
+LAW 258: OLD; </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 458: OLD, EHC_201, NB_T3, NB_T4; </t>
+GEOG 360: EHC_101; POL 254: OLD; SOC 454: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: EHC_102, NB_T1, NB_T5; </t>
+SOC 152: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 458: OLD; ENGL 470: NB_T3; </t>
+RS 154: OLD, EHC_101, EHC_102, EHC_201; SOC 456: NB_T1; SOC 456: EHC_102; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: OLD; SOC 456: NB_T4; ECON 364: NB_T2, EHC_101; ENGL 456: OLD; </t>
+ECON 366: OLD; COMS 152: OLD, EHC_101; </t>
         </is>
       </c>
     </row>
@@ -743,31 +767,37 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; </t>
+ENGL 470: OLD; ECON 254: OLD, NB_T2, NB_T5; SOC 452: OLD; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: OLD; SOC 456: OLD; ECON 360: OLD; GEOG 352: OLD; </t>
+ENGL 152: OLD; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; </t>
+ECON 360: OLD; GEOG 352: OLD; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, NB_T3, NB_T1; </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CAT 256: OLD, NB_T5, NB_T1, EHC_102; SOC 452: NB_T2; ECON 354: EHC_201; </t>
+ENGL 458: OLD, EHC_101, EHC_102, EHC_201; CAT 256: EHC_102, EHC_201, NB_T2, NB_T3, NB_T4; GEOG 256: OLD; </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 152: OLD; </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 184: OLD, EHC_101; </t>
         </is>
       </c>
     </row>
@@ -778,34 +808,34 @@
 PERIOD 3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 454: OLD; CHIN 102: EHC_101, EHC_102; FREN 262: OLD; </t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; ENGL 468: OLD; ENGL 152: OLD; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-POL 254: OLD; RS 154: OLD, NB_T5, NB_T1, EHC_201; GEOG 358: NB_T2; </t>
+GEOG 358: EHC_101; SOWK 260: OLD; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 256: NB_T1; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; ENGL 454: OLD; CHIN 102: EHC_102, EHC_101; </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 254: OLD, EHC_201, EHC_101, NB_T2; GEOG 354: NB_T3; </t>
+ECON 354: NB_T4; ECON 364: OLD; HIST 152: OLD, EHC_102, NB_T5; GEOG 354: OLD; SOC 458: OLD; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: OLD; ECON 366: EHC_101; </t>
+ENGL 456: EHC_102; ENGL 468: OLD; </t>
         </is>
       </c>
     </row>
@@ -882,43 +912,43 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 152: OLD; </t>
+GEOG 358: OLD; ENGL 152: OLD; SOWK 260: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; SOC 152: OLD; GEOG 356: OLD; GEOG 360: OLD; </t>
+GEOG 354: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 356: EHC_201; COMS 152: OLD, EHC_101; </t>
+ENGL 456: OLD; </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 458: OLD, EHC_201, NB_T3, NB_T4; </t>
+POL 254: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: EHC_102, NB_T1, NB_T5; </t>
+HIST 152: OLD, NB_T4, EHC_101; ECON 254: OLD, EHC_101, EHC_102, EHC_201; ECON 364: NB_T1, NB_T2; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 458: OLD; ENGL 470: NB_T3; </t>
+ENGL 458: NB_T2, NB_T3, NB_T4, NB_T5, NB_T1; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: OLD; SOC 456: NB_T4; ECON 364: NB_T2, EHC_101; ENGL 456: OLD; </t>
+SOC 454: EHC_102; SOC 458: OLD; </t>
         </is>
       </c>
     </row>
@@ -932,31 +962,43 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; </t>
+ENGL 470: OLD; GEOG 152: OLD; ECON 356: EHC_101; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: OLD; SOC 456: OLD; ECON 360: OLD; GEOG 352: OLD; </t>
+ENGL 468: OLD; RS 154: OLD, EHC_102, NB_T1, NB_T2; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; </t>
+MATH 154: OLD; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, NB_T3, NB_T1; </t>
+CSM 184: NB_T1, NB_T2, NB_T3; SOC 452: OLD; ECON 354: NB_T5; </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; ECON 366: OLD; </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 152: OLD; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: OLD, NB_T5, NB_T1, EHC_102; SOC 452: NB_T2; ECON 354: EHC_201; </t>
+ENGL 454: OLD; CHIN 102: OLD; FREN 262: OLD; </t>
         </is>
       </c>
     </row>
@@ -970,31 +1012,37 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; ENGL 468: OLD; ENGL 152: OLD; </t>
+HIST 256: OLD; ECON 360: NB_T1; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 152: OLD, EHC_101; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-POL 254: OLD; RS 154: OLD, NB_T5, NB_T1, EHC_201; GEOG 358: NB_T2; </t>
+GEOG 356: OLD; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; ENGL 454: OLD; CHIN 102: EHC_102, EHC_101; </t>
+CAT 256: EHC_101, EHC_201, NB_T1, NB_T2, NB_T3; LAW 258: OLD; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 254: OLD, EHC_201, EHC_101, NB_T2; GEOG 354: NB_T3; </t>
+GEOG 352: EHC_101; GEOG 256: OLD; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: OLD; ECON 366: EHC_101; </t>
+GEOG 360: OLD; SOC 456: OLD; SOC 456: OLD; </t>
         </is>
       </c>
     </row>
@@ -1071,37 +1119,43 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: OLD; GEOG 352: OLD; </t>
+GEOG 358: OLD; ENGL 152: OLD; SOWK 260: OLD; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 354: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; </t>
+ENGL 456: OLD; </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; HIST 256: OLD; </t>
+POL 254: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; ENGL 458: OLD, NB_T3, NB_T4, EHC_101; </t>
+HIST 152: OLD, NB_T4, EHC_101; ECON 254: OLD, EHC_101, EHC_102, EHC_201; ECON 364: NB_T1, NB_T2; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: OLD; </t>
+ENGL 458: NB_T2, NB_T3, NB_T4, NB_T5, NB_T1; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-POL 254: OLD; ECON 254: OLD, EHC_102, NB_T3; </t>
+SOC 454: EHC_102; SOC 458: OLD; </t>
         </is>
       </c>
     </row>
@@ -1115,37 +1169,43 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: OLD, EHC_201; ECON 360: NB_T2; </t>
+ENGL 470: OLD; GEOG 152: OLD; ECON 356: EHC_101; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 152: OLD; ECON 366: OLD; </t>
+ENGL 468: OLD; RS 154: OLD, EHC_102, NB_T1, NB_T2; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 456: OLD; COMS 152: NB_T5, EHC_201; SOC 152: OLD; GEOG 360: OLD; </t>
+MATH 154: OLD; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 354: NB_T5; </t>
+CSM 184: NB_T1, NB_T2, NB_T3; SOC 452: OLD; ECON 354: NB_T5; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, EHC_102, NB_T3, NB_T4; GEOG 358: NB_T1; </t>
+GLAK 262: OLD; ECON 366: OLD; </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 152: OLD; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; ENGL 152: OLD; ECON 364: NB_T5, EHC_102; </t>
+ENGL 454: OLD; CHIN 102: OLD; FREN 262: OLD; </t>
         </is>
       </c>
     </row>
@@ -1159,37 +1219,409 @@
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: OLD; CAT 256: OLD, NB_T3, NB_T2, EHC_201; ENGL 454: EHC_102; </t>
+HIST 256: OLD; ECON 360: NB_T1; </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; GEOG 356: OLD; </t>
+COMS 152: OLD, EHC_101; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: OLD; ECON 356: OLD; </t>
+GEOG 356: OLD; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; CHIN 102: OLD; ECON 354: NB_T1; </t>
+CAT 256: EHC_101, EHC_201, NB_T1, NB_T2, NB_T3; LAW 258: OLD; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; ENGL 468: NB_T1; HIST 152: OLD, NB_T5, NB_T4; </t>
+GEOG 352: EHC_101; GEOG 256: OLD; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 458: OLD; </t>
+GEOG 360: OLD; SOC 456: OLD; SOC 456: OLD; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 358: OLD; SOC 456: EHC_101; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 152: EHC_101, EHC_102; SOC 458: OLD; ENGL 470: EHC_101; </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 360: EHC_102; ECON 364: OLD; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; SOWK 260: OLD; </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 152: OLD, EHC_101; ENGL 454: EHC_201; </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 354: OLD; GLAK 262: OLD; GEOG 256: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 152: OLD; MATH 154: OLD; POL 254: OLD; ECON 366: OLD; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 356: EHC_101; CSM 184: OLD, EHC_101; </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 356: EHC_101; </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 360: OLD; CAT 256: EHC_101, EHC_102, EHC_201, NB_T1, NB_T2; HIST 256: OLD; </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LAW 258: OLD; ECON 354: OLD; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 254: OLD, EHC_101, EHC_102, EHC_201; FREN 262: OLD; ENGL 468: EHC_101; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 352: OLD; CHIN 102: OLD; RS 154: OLD, NB_T3, EHC_102, EHC_201; SOC 452: EHC_101; ENGL 456: EHC_102; </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, NB_T4, NB_T3; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 152: OLD; </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 1</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 2</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 3</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 4</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 5</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 6</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+DAY 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 184: EHC_102, NB_T3, NB_T4; MATH 154: OLD; LAW 258: OLD; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 354: OLD; </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; CHIN 102: EHC_101, NB_T1; ENGL 454: NB_T2; HIST 256: EHC_101; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOWK 260: OLD; ECON 366: OLD; </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 152: EHC_101, EHC_201; ENGL 456: OLD; ECON 254: OLD, NB_T3, EHC_102; </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 452: EHC_101; HIST 152: OLD, EHC_101, EHC_102, EHC_201; </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 352: OLD; GEOG 360: OLD; </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: OLD; GEOG 358: OLD; </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GLAK 262: OLD; </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 458: EHC_102, EHC_201, NB_T1, NB_T2, NB_T3; ECON 364: NB_T1, NB_T2; </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 152: OLD; ENGL 470: EHC_101; </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+PERIOD 3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+RS 154: OLD, EHC_101, EHC_102, EHC_201; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 356: OLD; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: EHC_101; ECON 360: OLD; GEOG 356: OLD; </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+COMS 152: OLD, EHC_101; ENGL 468: EHC_101; FREN 262: OLD; ECON 354: EHC_101; </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CAT 256: EHC_102, EHC_201, NB_T1, NB_T2, NB_T5; GEOG 256: OLD; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; SOC 152: OLD; POL 254: OLD; </t>
         </is>
       </c>
     </row>

--- a/data/archives/1.xlsx
+++ b/data/archives/1.xlsx
@@ -379,10 +379,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -393,10 +393,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +407,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C4" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5">
@@ -421,10 +421,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="C5" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -435,10 +435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7">
@@ -449,10 +449,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C7" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -525,40 +525,28 @@
 PERIOD 1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 358: OLD; SOC 454: OLD; </t>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 358: EHC_101; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; RS 154: OLD, NB_T3, NB_T2, NB_T4; CAT 256: OLD, NB_T5, EHC_201, EHC_102; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 458: OLD; </t>
+ENGL 454: EHC_101; POL 254: OLD; COMS 152: OLD, EHC_101; ECON 356: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 354: OLD; SOC 452: EHC_102; ENGL 456: OLD; ENGL 468: NB_T1; </t>
+ENGL 456: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 356: OLD; CSM 184: OLD, EHC_101; HIST 152: OLD, NB_T2, NB_T4; SOC 456: OLD; GLAK 262: OLD; </t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 256: OLD; </t>
+MATH 154: OLD; ECON 354: OLD; </t>
         </is>
       </c>
     </row>
@@ -569,40 +557,40 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 352: EHC_101; ECON 354: OLD; ECON 366: OLD; </t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 458: EHC_102, EHC_201, NB_T1, NB_T2, NB_T3; HIST 256: EHC_201; </t>
+GEOG 152: OLD; SOC 152: OLD; GEOG 360: EHC_101; SOC 458: OLD; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-POL 254: OLD; </t>
+GEOG 256: OLD; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 360: OLD; CHIN 102: OLD; SOC 152: OLD; </t>
+ENGL 470: OLD; GEOG 354: EHC_102; SOC 454: OLD; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 360: OLD; SOWK 260: OLD; </t>
+HIST 256: NB_T2; RS 154: OLD, EHC_101, EHC_201, EHC_102; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: OLD; </t>
+ECON 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; ECON 364: OLD; </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 184: OLD, EHC_101; GEOG 356: EHC_102; SOC 456: OLD; </t>
         </is>
       </c>
     </row>
@@ -616,31 +604,37 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 454: EHC_101; LAW 258: OLD; </t>
+ENGL 468: NB_T1; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 364: OLD; </t>
+FREN 262: OLD; HIST 152: OLD, NB_T4, NB_T2; </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; </t>
+ENGL 458: OLD, EHC_101, EHC_102, EHC_201; CAT 256: OLD, EHC_101, EHC_102, EHC_201; GLAK 262: OLD; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 356: OLD; ENGL 152: EHC_102, EHC_201; </t>
+SOWK 260: OLD; CHIN 102: OLD; GEOG 352: EHC_101; ECON 360: OLD; SOC 456: OLD; </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 152: OLD; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-COMS 152: OLD, EHC_101; GEOG 152: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; FREN 262: OLD; </t>
+LAW 258: OLD; ECON 366: EHC_101; SOC 452: OLD; </t>
         </is>
       </c>
     </row>
@@ -717,43 +711,37 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 356: EHC_101; GLAK 262: OLD; </t>
+MATH 154: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 356: OLD; MATH 154: OLD; </t>
+GLAK 262: OLD; GEOG 354: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 360: EHC_101; POL 254: OLD; SOC 454: OLD; </t>
+SOWK 260: EHC_101; HIST 152: OLD, NB_T2, NB_T5; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
+HIST 256: OLD; GEOG 358: OLD; GEOG 152: OLD; </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 352: OLD; CHIN 102: EHC_101, EHC_102; </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
 SOC 152: OLD; </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-RS 154: OLD, EHC_101, EHC_102, EHC_201; SOC 456: NB_T1; SOC 456: EHC_102; </t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 366: OLD; COMS 152: OLD, EHC_101; </t>
         </is>
       </c>
     </row>
@@ -767,37 +755,37 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: OLD; ECON 254: OLD, NB_T2, NB_T5; SOC 452: OLD; </t>
+ENGL 456: EHC_101; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 152: OLD; </t>
+CAT 256: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; ENGL 454: NB_T1; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 360: OLD; GEOG 352: OLD; </t>
+ECON 364: OLD; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 458: OLD, EHC_101, EHC_102, EHC_201; CAT 256: EHC_102, EHC_201, NB_T2, NB_T3, NB_T4; GEOG 256: OLD; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 152: OLD; </t>
+LAW 258: OLD; ECON 356: OLD; COMS 152: OLD, EHC_101; ENGL 458: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: OLD, EHC_101; </t>
+SOC 456: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; CSM 184: EHC_102, EHC_201, EHC_101; </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; ECON 354: OLD; </t>
         </is>
       </c>
     </row>
@@ -811,31 +799,37 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 454: OLD; CHIN 102: EHC_101, EHC_102; FREN 262: OLD; </t>
+SOC 452: EHC_101; POL 254: EHC_101; RS 154: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 358: EHC_101; SOWK 260: OLD; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-HIST 256: NB_T1; </t>
+SOC 456: OLD; ENGL 152: EHC_201, EHC_EXT_A; ENGL 468: OLD; ENGL 470: EHC_101; </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 366: OLD; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 354: NB_T4; ECON 364: OLD; HIST 152: OLD, EHC_102, NB_T5; GEOG 354: OLD; SOC 458: OLD; </t>
+ECON 360: OLD; </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 256: OLD; GEOG 356: NB_T1; GEOG 360: OLD; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 456: EHC_102; ENGL 468: OLD; </t>
+SOC 458: OLD; FREN 262: OLD; </t>
         </is>
       </c>
     </row>
@@ -912,43 +906,37 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 358: OLD; ENGL 152: OLD; SOWK 260: OLD; </t>
+MATH 154: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 354: OLD; </t>
+GLAK 262: OLD; GEOG 354: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 456: OLD; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-POL 254: OLD; </t>
+SOWK 260: EHC_101; HIST 152: OLD, NB_T2, NB_T5; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, NB_T4, EHC_101; ECON 254: OLD, EHC_101, EHC_102, EHC_201; ECON 364: NB_T1, NB_T2; </t>
+HIST 256: OLD; GEOG 358: OLD; GEOG 152: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 458: NB_T2, NB_T3, NB_T4, NB_T5, NB_T1; </t>
+GEOG 352: OLD; CHIN 102: EHC_101, EHC_102; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: EHC_102; SOC 458: OLD; </t>
+SOC 152: OLD; </t>
         </is>
       </c>
     </row>
@@ -962,43 +950,37 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: OLD; GEOG 152: OLD; ECON 356: EHC_101; </t>
+ENGL 456: EHC_101; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 468: OLD; RS 154: OLD, EHC_102, NB_T1, NB_T2; </t>
+CAT 256: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; ENGL 454: NB_T1; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; </t>
+ECON 364: OLD; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: NB_T1, NB_T2, NB_T3; SOC 452: OLD; ECON 354: NB_T5; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GLAK 262: OLD; ECON 366: OLD; </t>
+LAW 258: OLD; ECON 356: OLD; COMS 152: OLD, EHC_101; ENGL 458: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; </t>
+SOC 456: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; CSM 184: EHC_102, EHC_201, EHC_101; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 454: OLD; CHIN 102: OLD; FREN 262: OLD; </t>
+SOC 454: OLD; ECON 354: OLD; </t>
         </is>
       </c>
     </row>
@@ -1009,40 +991,40 @@
 PERIOD 3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 452: EHC_101; POL 254: EHC_101; RS 154: OLD, EHC_101, EHC_102, EHC_201; </t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: OLD; ECON 360: NB_T1; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 152: OLD, EHC_101; </t>
+SOC 456: OLD; ENGL 152: EHC_201, EHC_EXT_A; ENGL 468: OLD; ENGL 470: EHC_101; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 356: OLD; </t>
+ECON 366: OLD; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: EHC_101, EHC_201, NB_T1, NB_T2, NB_T3; LAW 258: OLD; </t>
+ECON 360: OLD; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 352: EHC_101; GEOG 256: OLD; </t>
+GEOG 256: OLD; GEOG 356: NB_T1; GEOG 360: OLD; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 360: OLD; SOC 456: OLD; SOC 456: OLD; </t>
+SOC 458: OLD; FREN 262: OLD; </t>
         </is>
       </c>
     </row>
@@ -1119,43 +1101,43 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 358: OLD; ENGL 152: OLD; SOWK 260: OLD; </t>
+ENGL 152: OLD; GEOG 256: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 354: OLD; </t>
+ECON 356: OLD; LAW 258: OLD; ENGL 468: OLD; SOC 454: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 456: OLD; </t>
+COMS 152: EHC_101, EHC_102; POL 254: OLD; </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-POL 254: OLD; </t>
+GEOG 152: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, NB_T4, EHC_101; ECON 254: OLD, EHC_101, EHC_102, EHC_201; ECON 364: NB_T1, NB_T2; </t>
+SOC 456: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 458: NB_T2, NB_T3, NB_T4, NB_T5, NB_T1; </t>
+CAT 256: OLD, EHC_101, EHC_102, EHC_201; SOC 452: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: EHC_102; SOC 458: OLD; </t>
+SOWK 260: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
     </row>
@@ -1166,46 +1148,40 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 470: OLD; GEOG 152: OLD; ECON 356: EHC_101; </t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 468: OLD; RS 154: OLD, EHC_102, NB_T1, NB_T2; </t>
+GEOG 360: OLD; SOC 456: OLD; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; </t>
+GEOG 358: OLD; ENGL 454: OLD; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: NB_T1, NB_T2, NB_T3; SOC 452: OLD; ECON 354: NB_T5; </t>
+SOC 152: OLD; HIST 256: EHC_101; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; ECON 366: OLD; </t>
+ECON 360: NB_T1; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; </t>
+ECON 364: OLD; RS 154: OLD, NB_T2, NB_T5, NB_T3; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 454: OLD; CHIN 102: OLD; FREN 262: OLD; </t>
+GEOG 352: OLD; MATH 154: OLD; </t>
         </is>
       </c>
     </row>
@@ -1216,40 +1192,40 @@
 PERIOD 3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 456: EHC_102; ENGL 470: OLD; </t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: OLD; ECON 360: NB_T1; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 152: OLD, EHC_101; </t>
+ECON 354: EHC_101; GLAK 262: OLD; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
+HIST 152: OLD, NB_T1, NB_T2; FREN 262: EHC_101; SOC 458: OLD; </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
 GEOG 356: OLD; </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CAT 256: EHC_101, EHC_201, NB_T1, NB_T2, NB_T3; LAW 258: OLD; </t>
-        </is>
-      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 352: EHC_101; GEOG 256: OLD; </t>
+ECON 366: EHC_101; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 360: OLD; SOC 456: OLD; SOC 456: OLD; </t>
+GEOG 354: EHC_101; CHIN 102: OLD; CSM 184: OLD, EHC_101; ECON 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; </t>
         </is>
       </c>
     </row>
@@ -1326,37 +1302,37 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 358: OLD; SOC 456: EHC_101; </t>
+GEOG 360: OLD; POL 254: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 152: EHC_101, EHC_102; SOC 458: OLD; ENGL 470: EHC_101; </t>
+GEOG 352: NB_T1; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 360: EHC_102; ECON 364: OLD; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 454: OLD; SOWK 260: OLD; </t>
+GEOG 354: OLD; ECON 356: OLD; ECON 366: OLD; RS 154: OLD, EHC_201, EHC_101, EHC_102; FREN 262: OLD; ENGL 456: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-COMS 152: OLD, EHC_101; ENGL 454: EHC_201; </t>
+SOWK 260: OLD; GEOG 256: OLD; ENGL 454: OLD; </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 354: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 354: OLD; GLAK 262: OLD; GEOG 256: OLD; </t>
+MATH 154: OLD; </t>
         </is>
       </c>
     </row>
@@ -1367,40 +1343,34 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 152: OLD; MATH 154: OLD; POL 254: OLD; ECON 366: OLD; </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 356: EHC_101; CSM 184: OLD, EHC_101; </t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 356: EHC_101; </t>
+SOC 456: OLD; CAT 256: OLD, EHC_101, EHC_102, EHC_201; </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; CSM 184: OLD, NB_T4; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
+GEOG 356: OLD; ECON 360: OLD; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 360: OLD; CAT 256: EHC_101, EHC_102, EHC_201, NB_T1, NB_T2; HIST 256: OLD; </t>
+SOC 456: OLD; SOC 152: OLD; HIST 256: EHC_101; LAW 258: OLD; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; ECON 354: OLD; </t>
+CHIN 102: EHC_101, EHC_102; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
     </row>
@@ -1414,25 +1384,43 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 254: OLD, EHC_101, EHC_102, EHC_201; FREN 262: OLD; ENGL 468: EHC_101; </t>
+COMS 152: OLD; GEOG 152: EHC_101; ENGL 470: OLD; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 254: OLD, EHC_101, EHC_102; </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 352: OLD; CHIN 102: OLD; RS 154: OLD, NB_T3, EHC_102, EHC_201; SOC 452: EHC_101; ENGL 456: EHC_102; </t>
+SOC 452: OLD; </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 364: OLD; ENGL 152: EHC_101, EHC_102; </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 152: OLD, NB_T2, NB_T5; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, NB_T4, NB_T3; </t>
+SOC 458: OLD; GEOG 358: EHC_101; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; </t>
+GLAK 262: OLD; ENGL 468: NB_T1; </t>
         </is>
       </c>
     </row>
@@ -1509,37 +1497,37 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: EHC_102, NB_T3, NB_T4; MATH 154: OLD; LAW 258: OLD; </t>
+ENGL 152: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 354: OLD; </t>
+SOWK 260: OLD; HIST 152: OLD, EHC_101, EHC_102, EHC_201; GEOG 354: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: OLD; CHIN 102: EHC_101, NB_T1; ENGL 454: NB_T2; HIST 256: EHC_101; </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOWK 260: OLD; ECON 366: OLD; </t>
+SOC 454: OLD; ENGL 468: NB_T1; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 152: EHC_101, EHC_201; ENGL 456: OLD; ECON 254: OLD, NB_T3, EHC_102; </t>
+ECON 360: OLD; SOC 152: OLD; GEOG 360: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: EHC_101; HIST 152: OLD, EHC_101, EHC_102, EHC_201; </t>
+SOC 452: OLD; ECON 356: OLD; POL 254: OLD; GEOG 352: OLD; </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 256: OLD; </t>
         </is>
       </c>
     </row>
@@ -1550,34 +1538,34 @@
 PERIOD 2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 352: OLD; GEOG 360: OLD; </t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; GEOG 358: OLD; </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+CHIN 102: OLD; GEOG 152: OLD; ENGL 470: OLD; </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+HIST 256: EHC_101; CSM 184: OLD, EHC_101; RS 154: OLD, NB_T1, NB_T4, NB_T5; GEOG 356: OLD; ENGL 458: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 456: EHC_101; </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 364: NB_T1, NB_T2; </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
 GLAK 262: OLD; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 458: EHC_102, EHC_201, NB_T1, NB_T2, NB_T3; ECON 364: NB_T1, NB_T2; </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 152: OLD; ENGL 470: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -1591,37 +1579,43 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, EHC_101, EHC_102, EHC_201; </t>
+FREN 262: OLD; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 356: OLD; </t>
+CAT 256: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; ECON 254: OLD, EHC_101, EHC_102, EHC_201; COMS 152: OLD, EHC_101; </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: EHC_101; ECON 360: OLD; GEOG 356: OLD; </t>
+ECON 354: NB_T1; </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; ECON 366: OLD; GEOG 358: OLD; ENGL 456: EHC_101; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-COMS 152: OLD, EHC_101; ENGL 468: EHC_101; FREN 262: OLD; ECON 354: EHC_101; </t>
+SOC 456: OLD; ENGL 454: NB_T1; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: EHC_102, EHC_201, NB_T1, NB_T2, NB_T5; GEOG 256: OLD; </t>
+LAW 258: OLD; </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 458: OLD; SOC 152: OLD; POL 254: OLD; </t>
+MATH 154: OLD; </t>
         </is>
       </c>
     </row>

--- a/data/archives/1.xlsx
+++ b/data/archives/1.xlsx
@@ -1,19 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Chromosome 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Chromosome 2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Chromosome 3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Chromosome 4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Chromosome 5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Chromosome 6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chromosome 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chromosome 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chromosome 3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chromosome 4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -50,15 +48,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -351,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -379,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" t="n">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -393,10 +459,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -407,10 +473,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" t="n">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5">
@@ -421,42 +487,14 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C5" t="n">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-Chromosome 5</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>54</v>
-      </c>
-      <c r="C6" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-Chromosome 6</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>53</v>
-      </c>
-      <c r="C7" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -528,25 +566,43 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 358: EHC_101; </t>
+CHIN 102: OLD; ENGL 454: OLD; ECON 354: OLD; </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+POL 254: EHC_102; ENGL 468: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 454: EHC_101; POL 254: OLD; COMS 152: OLD, EHC_101; ECON 356: OLD; </t>
+HIST 152: OLD, EHC_101, EHC_201; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 356: EHC_102; GEOG 360: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 456: OLD; </t>
+CSM 184: OLD, EHC_101; ECON 254: OLD, NB_T2, NB_T3; ECON 360: OLD; ECON 364: EHC_201, EHC_EXT_A; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; ECON 354: OLD; </t>
+SOC 454: OLD; GEOG 352: OLD; </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+LAW 258: OLD; </t>
         </is>
       </c>
     </row>
@@ -557,40 +613,46 @@
 PERIOD 2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+RS 154: OLD, NB_T3, NB_T1, NB_T5; SOC 152: OLD; ECON 366: EHC_101; </t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 152: OLD; SOC 152: OLD; GEOG 360: EHC_101; SOC 458: OLD; </t>
+ENGL 470: OLD; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; </t>
+COMS 152: OLD, EHC_101; SOC 456: OLD; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: OLD; GEOG 354: EHC_102; SOC 454: OLD; </t>
+SOWK 260: OLD; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: NB_T2; RS 154: OLD, EHC_101, EHC_201, EHC_102; </t>
+ENGL 152: EHC_101, EHC_102; GLAK 262: OLD; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; ECON 364: OLD; </t>
+HIST 256: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; GEOG 358: EHC_101; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: OLD, EHC_101; GEOG 356: EHC_102; SOC 456: OLD; </t>
+GEOG 152: OLD; MATH 154: OLD; GEOG 354: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -601,45 +663,39 @@
 PERIOD 3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 468: NB_T1; </t>
-        </is>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: OLD; HIST 152: OLD, NB_T4, NB_T2; </t>
+SOC 458: OLD; FREN 262: OLD; </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 458: OLD, EHC_101, EHC_102, EHC_201; CAT 256: OLD, EHC_101, EHC_102, EHC_201; GLAK 262: OLD; </t>
+SOC 452: OLD; CAT 256: OLD, EHC_101, EHC_102, EHC_201; ENGL 456: OLD; </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 356: OLD; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; CHIN 102: OLD; GEOG 352: EHC_101; ECON 360: OLD; SOC 456: OLD; </t>
+SOC 456: OLD; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 152: OLD; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-LAW 258: OLD; ECON 366: EHC_101; SOC 452: OLD; </t>
+GEOG 256: OLD; </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -711,37 +767,31 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; </t>
+ECON 354: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; GEOG 354: OLD; </t>
+COMS 152: OLD; GEOG 358: EHC_101; SOC 456: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: EHC_101; HIST 152: OLD, NB_T2, NB_T5; </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-HIST 256: OLD; GEOG 358: OLD; GEOG 152: OLD; </t>
+SOWK 260: EHC_102; ECON 356: OLD; ENGL 454: NB_T1; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 352: OLD; CHIN 102: EHC_101, EHC_102; </t>
+ECON 360: EHC_102; ENGL 456: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; </t>
+HIST 256: EHC_201; CSM 184: OLD, EHC_102; RS 154: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
     </row>
@@ -755,37 +805,37 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 456: EHC_101; </t>
+FREN 262: OLD; LAW 258: OLD; GEOG 152: OLD; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; ENGL 454: NB_T1; </t>
+POL 254: OLD; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 364: OLD; </t>
+CHIN 102: OLD; SOC 452: EHC_101; ENGL 468: NB_T1; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; ECON 356: OLD; COMS 152: OLD, EHC_101; ENGL 458: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; CSM 184: EHC_102, EHC_201, EHC_101; </t>
+HIST 152: OLD, EHC_101, EHC_102, EHC_201; </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 256: OLD; ECON 364: OLD; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: OLD; ECON 354: OLD; </t>
+ECON 254: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; GLAK 262: OLD; ENGL 152: OLD; MATH 154: OLD; GEOG 356: OLD; GEOG 360: EHC_101; SOC 456: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -799,42 +849,30 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: EHC_101; POL 254: EHC_101; RS 154: OLD, EHC_101, EHC_102, EHC_201; </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; ENGL 152: EHC_201, EHC_EXT_A; ENGL 468: OLD; ENGL 470: EHC_101; </t>
+ECON 366: OLD; SOC 458: OLD; ENGL 470: EHC_101; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 366: OLD; </t>
+SOC 152: OLD; GEOG 352: NB_T1; GEOG 354: OLD; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 360: OLD; </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 256: OLD; GEOG 356: NB_T1; GEOG 360: OLD; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 458: OLD; FREN 262: OLD; </t>
+CAT 256: OLD, NB_T5, NB_T4, NB_T1; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -906,37 +944,37 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; </t>
+SOC 452: OLD; SOC 456: OLD; SOWK 260: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; GEOG 354: OLD; </t>
+RS 154: OLD, NB_T3, NB_T5, NB_T4; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: EHC_101; HIST 152: OLD, NB_T2, NB_T5; </t>
+SOC 454: OLD; ENGL 456: OLD; </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 356: OLD; HIST 256: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: OLD; GEOG 358: OLD; GEOG 152: OLD; </t>
+GLAK 262: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 352: OLD; CHIN 102: EHC_101, EHC_102; </t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 152: OLD; </t>
+ECON 354: OLD; ENGL 470: OLD; POL 254: OLD; CSM 184: OLD, EHC_101; </t>
         </is>
       </c>
     </row>
@@ -950,37 +988,43 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 456: EHC_101; </t>
+ENGL 458: EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B, EHC_101, NB_T2; LAW 258: EHC_101; GEOG 360: OLD; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; ENGL 454: NB_T1; </t>
+COMS 152: OLD, EHC_101; GEOG 354: EHC_102; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 364: OLD; </t>
+CAT 256: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; CHIN 102: EHC_101, EHC_102; GEOG 352: EHC_201; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; ECON 356: OLD; COMS 152: OLD, EHC_101; ENGL 458: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
+SOC 458: OLD; ECON 366: OLD; GEOG 152: OLD; </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+MATH 154: OLD; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; CSM 184: EHC_102, EHC_201, EHC_101; </t>
+ENGL 454: OLD; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: OLD; ECON 354: OLD; </t>
+FREN 262: OLD; </t>
         </is>
       </c>
     </row>
@@ -994,42 +1038,24 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: EHC_101; POL 254: EHC_101; RS 154: OLD, EHC_101, EHC_102, EHC_201; </t>
+ECON 360: OLD; HIST 152: OLD, NB_T3, NB_T4; GEOG 356: OLD; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; ENGL 152: EHC_201, EHC_EXT_A; ENGL 468: OLD; ENGL 470: EHC_101; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 366: OLD; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 360: OLD; </t>
+SOC 456: OLD; ECON 364: OLD; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; GEOG 356: NB_T1; GEOG 360: OLD; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 458: OLD; FREN 262: OLD; </t>
+ENGL 468: OLD; ECON 254: OLD, NB_T4, NB_T1; GEOG 256: OLD; ENGL 152: EHC_101, EHC_102; SOC 152: OLD; GEOG 358: OLD; </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1101,43 +1127,37 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 152: OLD; GEOG 256: OLD; </t>
+ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 356: OLD; LAW 258: OLD; ENGL 468: OLD; SOC 454: OLD; </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 152: EHC_101, EHC_102; POL 254: OLD; </t>
+SOC 454: EHC_101; </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 152: OLD; </t>
+GLAK 262: OLD; ECON 366: OLD; COMS 152: OLD, EHC_101; CSM 184: OLD, EHC_101; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: OLD; </t>
+LAW 258: OLD; ENGL 152: EHC_101, EHC_102; MATH 154: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: OLD, EHC_101, EHC_102, EHC_201; SOC 452: OLD; </t>
+HIST 256: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
+SOC 456: EHC_101; GEOG 356: NB_T1; </t>
         </is>
       </c>
     </row>
@@ -1148,40 +1168,40 @@
 PERIOD 2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+RS 154: OLD, EHC_101, EHC_102, EHC_201; </t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 360: OLD; SOC 456: OLD; </t>
+SOC 458: OLD; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 358: OLD; ENGL 454: OLD; </t>
+CAT 256: OLD, NB_T2, NB_T4, NB_T1; POL 254: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; ECON 356: EHC_102; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; HIST 256: EHC_101; </t>
+FREN 262: EHC_101; GEOG 152: OLD; GEOG 352: OLD; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 360: NB_T1; </t>
+ENGL 456: EHC_101; </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 364: OLD; RS 154: OLD, NB_T2, NB_T5, NB_T3; </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 352: OLD; MATH 154: OLD; </t>
+SOC 452: OLD; SOC 456: OLD; ECON 364: OLD; GEOG 360: OLD; </t>
         </is>
       </c>
     </row>
@@ -1195,431 +1215,41 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 456: EHC_102; ENGL 470: OLD; </t>
+GEOG 354: EHC_101; </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 354: EHC_101; GLAK 262: OLD; </t>
+ENGL 468: EHC_101; ENGL 470: EHC_101; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 454: NB_T1; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, NB_T1, NB_T2; FREN 262: EHC_101; SOC 458: OLD; </t>
+SOWK 260: OLD; GEOG 256: OLD; HIST 152: OLD, EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 356: OLD; </t>
+ECON 354: EHC_201; ECON 360: OLD; CHIN 102: EHC_101, EHC_102; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 366: EHC_101; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 354: EHC_101; CHIN 102: OLD; CSM 184: OLD, EHC_101; ECON 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; </t>
+SOC 152: OLD; GEOG 358: EHC_201; </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 360: OLD; POL 254: OLD; </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 352: NB_T1; </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 354: OLD; ECON 356: OLD; ECON 366: OLD; RS 154: OLD, EHC_201, EHC_101, EHC_102; FREN 262: OLD; ENGL 456: OLD; </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOWK 260: OLD; GEOG 256: OLD; ENGL 454: OLD; </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 354: OLD; </t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-MATH 154: OLD; </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; CAT 256: OLD, EHC_101, EHC_102, EHC_201; </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 454: OLD; CSM 184: OLD, NB_T4; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 356: OLD; ECON 360: OLD; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; SOC 152: OLD; HIST 256: EHC_101; LAW 258: OLD; </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 102: EHC_101, EHC_102; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 152: OLD; GEOG 152: EHC_101; ENGL 470: OLD; </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 254: OLD, EHC_101, EHC_102; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 452: OLD; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 364: OLD; ENGL 152: EHC_101, EHC_102; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-HIST 152: OLD, NB_T2, NB_T5; </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 458: OLD; GEOG 358: EHC_101; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GLAK 262: OLD; ENGL 468: NB_T1; </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-DAY 7</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 152: OLD; </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOWK 260: OLD; HIST 152: OLD, EHC_101, EHC_102, EHC_201; GEOG 354: OLD; </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 454: OLD; ENGL 468: NB_T1; </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 360: OLD; SOC 152: OLD; GEOG 360: OLD; </t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 452: OLD; ECON 356: OLD; POL 254: OLD; GEOG 352: OLD; </t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 256: OLD; </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CHIN 102: OLD; GEOG 152: OLD; ENGL 470: OLD; </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-HIST 256: EHC_101; CSM 184: OLD, EHC_101; RS 154: OLD, NB_T1, NB_T4, NB_T5; GEOG 356: OLD; ENGL 458: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: EHC_101; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 364: NB_T1, NB_T2; </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GLAK 262: OLD; </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-PERIOD 3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-FREN 262: OLD; </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CAT 256: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; ECON 254: OLD, EHC_101, EHC_102, EHC_201; COMS 152: OLD, EHC_101; </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 354: NB_T1; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 458: OLD; ECON 366: OLD; GEOG 358: OLD; ENGL 456: EHC_101; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; ENGL 454: NB_T1; </t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-LAW 258: OLD; </t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-MATH 154: OLD; </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/archives/1.xlsx
+++ b/data/archives/1.xlsx
@@ -445,10 +445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -459,10 +459,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C4" t="n">
-        <v>48</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -566,43 +566,43 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CHIN 102: OLD; ENGL 454: OLD; ECON 354: OLD; </t>
+ENGL 468: EHC_101; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-POL 254: EHC_102; ENGL 468: OLD; </t>
+SOC 452: OLD; CAT 256: OLD; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, EHC_101, EHC_201; </t>
+ECON 354: EHC_102; </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 356: EHC_102; GEOG 360: OLD; </t>
+SOC 456: OLD; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CSM 184: OLD, EHC_101; ECON 254: OLD, NB_T2, NB_T3; ECON 360: OLD; ECON 364: EHC_201, EHC_EXT_A; </t>
+COMS 152: OLD; ECON 366: OLD; GEOG 356: EHC_101; GEOG 358: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: OLD; GEOG 352: OLD; </t>
+ENGL 152: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; </t>
+LAW 258: OLD; ENGL 454: OLD; </t>
         </is>
       </c>
     </row>
@@ -616,43 +616,25 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, NB_T3, NB_T1, NB_T5; SOC 152: OLD; ECON 366: EHC_101; </t>
+SOC 456: OLD; ECON 254: EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 470: OLD; </t>
+GEOG 152: OLD, NB_T2; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-COMS 152: OLD, EHC_101; SOC 456: OLD; </t>
+HIST 256: EHC_102, EHC_201, EHC_EXT_A; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 152: EHC_101, EHC_102; GLAK 262: OLD; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-HIST 256: OLD; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; GEOG 358: EHC_101; </t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 152: OLD; MATH 154: OLD; GEOG 354: EHC_101; </t>
+GLAK 262: OLD; GEOG 256: OLD, NB_T4, NB_T5; ECON 360: OLD; ECON 364: EHC_101; GEOG 352: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -663,34 +645,28 @@
 PERIOD 3</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 458: OLD; FREN 262: OLD; </t>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+POL 254: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; SOC 152: OLD, NB_T3, NB_T4; ENGL 456: EHC_101; GEOG 354: NB_T1; </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: OLD; CAT 256: OLD, EHC_101, EHC_102, EHC_201; ENGL 456: OLD; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 356: OLD; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; </t>
+SOC 458: OLD; HIST 152: EHC_101; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 256: OLD; </t>
+FREN 262: OLD; MATH 154: OLD, NB_T1, NB_T3, NB_T2, NB_T5, NB_T4; ENGL 470: EHC_101; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 454: OLD; GEOG 360: OLD; </t>
         </is>
       </c>
     </row>
@@ -767,31 +743,31 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 354: OLD; </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-COMS 152: OLD; GEOG 358: EHC_101; SOC 456: OLD; </t>
+SOC 452: OLD; ENGL 152: EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: EHC_102; ECON 356: OLD; ENGL 454: NB_T1; </t>
+SOC 454: OLD; SOC 456: OLD; SOC 458: OLD; CSM 184: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B, NB_T1, NB_T2, NB_T3, NB_T4, NB_T5; MATH 154: OLD, EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B, NB_T1; ENGL 456: EHC_101; GLAK 262: OLD; </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 254: OLD, NB_T4; ECON 354: EHC_102; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 360: EHC_102; ENGL 456: OLD; </t>
+POL 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; LAW 258: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: EHC_201; CSM 184: OLD, EHC_102; RS 154: OLD, EHC_101, EHC_102, EHC_201; </t>
+COMS 152: OLD; </t>
         </is>
       </c>
     </row>
@@ -805,37 +781,31 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: OLD; LAW 258: OLD; GEOG 152: OLD; </t>
+GEOG 152: NB_T1, NB_T2, NB_T3; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-POL 254: OLD; </t>
+SOC 456: OLD; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CHIN 102: OLD; SOC 452: EHC_101; ENGL 468: NB_T1; </t>
+GEOG 360: OLD; ECON 364: OLD; </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 152: OLD, EHC_101, EHC_102, EHC_201; </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-GEOG 256: OLD; ECON 364: OLD; </t>
+ENGL 454: EHC_102; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 254: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; GLAK 262: OLD; ENGL 152: OLD; MATH 154: OLD; GEOG 356: OLD; GEOG 360: EHC_101; SOC 456: EHC_101; </t>
+FREN 262: OLD; </t>
         </is>
       </c>
     </row>
@@ -849,25 +819,31 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 366: OLD; SOC 458: OLD; ENGL 470: EHC_101; </t>
+HIST 256: EHC_101, EHC_102, EHC_201; GEOG 354: NB_T1; </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 256: OLD, EHC_101, EHC_201; GEOG 356: NB_T1; ECON 366: EHC_102; </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: OLD; </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 152: OLD; GEOG 352: NB_T1; GEOG 354: OLD; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-CAT 256: OLD, NB_T5, NB_T4, NB_T1; ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
+HIST 152: OLD; SOC 152: OLD, EHC_101, EHC_102, EHC_201; CAT 256: EHC_102; </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 468: OLD; GEOG 352: NB_R1, NB_R2; GEOG 358: OLD; ECON 360: EHC_101; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 470: OLD; </t>
         </is>
       </c>
     </row>
@@ -944,37 +920,37 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 452: OLD; SOC 456: OLD; SOWK 260: OLD; </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-RS 154: OLD, NB_T3, NB_T5, NB_T4; </t>
+SOC 456: OLD; COMS 152: EHC_101; SOC 152: OLD, EHC_201, EHC_101; </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: OLD; ENGL 456: OLD; </t>
+ENGL 468: EHC_201; FREN 262: EHC_101; </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 356: OLD; HIST 256: OLD; </t>
+ENGL 152: NB_T1, NB_T2; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; </t>
+ECON 366: OLD; GEOG 352: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 354: OLD; ENGL 470: OLD; POL 254: OLD; CSM 184: OLD, EHC_101; </t>
+SOC 454: OLD; </t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 458: OLD; CAT 256: EHC_102; ECON 364: OLD; HIST 152: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -988,43 +964,31 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 458: EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B, EHC_101, NB_T2; LAW 258: EHC_101; GEOG 360: OLD; </t>
+GEOG 360: OLD; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-COMS 152: OLD, EHC_101; GEOG 354: EHC_102; </t>
+ENGL 470: NB_T1; GEOG 256: OLD, NB_T1, NB_T5; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: EHC_102, EHC_201, EHC_101, EHC_EXT_A, EHC_EXT_B; CHIN 102: EHC_101, EHC_102; GEOG 352: EHC_201; </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 458: OLD; ECON 366: OLD; GEOG 152: OLD; </t>
+GLAK 262: OLD; GEOG 152: EHC_102, EHC_201, EHC_101; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-MATH 154: OLD; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 454: OLD; </t>
+POL 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; MATH 154: OLD, NB_T2, NB_T3, NB_T4, NB_T1, NB_T5; </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-FREN 262: OLD; </t>
+ECON 354: EHC_201; ECON 360: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -1038,19 +1002,31 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ECON 360: OLD; HIST 152: OLD, NB_T3, NB_T4; GEOG 356: OLD; </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 456: OLD; ECON 364: OLD; </t>
+HIST 256: EHC_102, EHC_EXT_A, EHC_EXT_B; </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+SOC 452: OLD; ENGL 454: EHC_101; LAW 258: OLD; </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+GEOG 358: OLD; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 468: OLD; ECON 254: OLD, NB_T4, NB_T1; GEOG 256: OLD; ENGL 152: EHC_101, EHC_102; SOC 152: OLD; GEOG 358: OLD; </t>
+SOC 456: OLD; ECON 254: EHC_102, EHC_201, EHC_101; GEOG 354: OLD; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 456: OLD; GEOG 356: OLD; CSM 184: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B, NB_T1, NB_T2, NB_T3, NB_T4, NB_T5; </t>
         </is>
       </c>
     </row>
@@ -1127,37 +1103,43 @@
       <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 458: OLD, EHC_101, EHC_102, EHC_201; </t>
+CAT 256: OLD; </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 454: EHC_101; </t>
+ENGL 454: OLD; </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ENGL 152: EHC_101, EHC_102; ECON 354: NB_T2; </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GLAK 262: OLD; ECON 366: OLD; COMS 152: OLD, EHC_101; CSM 184: OLD, EHC_101; </t>
+HIST 256: EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-LAW 258: OLD; ENGL 152: EHC_101, EHC_102; MATH 154: OLD; </t>
+ENGL 456: OLD; LAW 258: OLD; </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-HIST 256: OLD; </t>
+ECON 366: OLD; </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 456: EHC_101; GEOG 356: NB_T1; </t>
+SOC 452: OLD; SOC 458: OLD; HIST 152: EHC_102; FREN 262: EHC_101; GEOG 354: EHC_101; </t>
         </is>
       </c>
     </row>
@@ -1171,37 +1153,31 @@
       <c r="B3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-RS 154: OLD, EHC_101, EHC_102, EHC_201; </t>
+GLAK 262: OLD; GEOG 256: OLD, EHC_101, EHC_201; ECON 364: OLD; </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 458: OLD; </t>
+GEOG 152: EHC_101, EHC_102, EHC_201; </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-CAT 256: OLD, NB_T2, NB_T4, NB_T1; POL 254: OLD; ECON 254: OLD, EHC_101, EHC_102, EHC_201; ECON 356: EHC_102; </t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-FREN 262: EHC_101; GEOG 152: OLD; GEOG 352: OLD; </t>
+SOC 456: OLD; SOC 456: OLD; ENGL 468: EHC_101; ENGL 470: EHC_101; GEOG 360: OLD; </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 456: EHC_101; </t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-SOC 452: OLD; SOC 456: OLD; ECON 364: OLD; GEOG 360: OLD; </t>
+GEOG 352: NB_R1, NB_R2; </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+ECON 254: OLD, EHC_102; GEOG 356: EHC_101; GEOG 358: OLD; </t>
         </is>
       </c>
     </row>
@@ -1215,37 +1191,31 @@
       <c r="B4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-GEOG 354: EHC_101; </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ENGL 468: EHC_101; ENGL 470: EHC_101; </t>
+SOC 454: OLD; SOC 152: OLD, EHC_201, EHC_101; </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-ENGL 454: NB_T1; </t>
+COMS 152: OLD; ECON 360: NB_T1; </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOWK 260: OLD; GEOG 256: OLD; HIST 152: OLD, EHC_101, EHC_102, EHC_201; </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 
-ECON 354: EHC_201; ECON 360: OLD; CHIN 102: EHC_101, EHC_102; </t>
+MATH 154: OLD, EHC_201, EHC_101, EHC_102, EHC_EXT_B, EHC_EXT_A, NB_T5; </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t xml:space="preserve"> 
-SOC 152: OLD; GEOG 358: EHC_201; </t>
+POL 254: EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B; </t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 
+CSM 184: OLD, EHC_101, EHC_102, EHC_201, EHC_EXT_A, EHC_EXT_B, NB_T1, NB_T2, NB_T3; </t>
         </is>
       </c>
     </row>
